--- a/Code/Resultados_Analisis/Analisis_Global/anova_results_global.xlsx
+++ b/Code/Resultados_Analisis/Analisis_Global/anova_results_global.xlsx
@@ -540,10 +540,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.851867533186229e-15</v>
+        <v>2.553107688952266e-10</v>
       </c>
       <c r="C2" t="n">
-        <v>8.327369988005295e-35</v>
+        <v>2.849421789686596e-37</v>
       </c>
       <c r="D2" t="b">
         <v>1</v>
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.193304305214587e-30</v>
+        <v>3.329763252441008e-31</v>
       </c>
       <c r="C3" t="n">
-        <v>9.662510945013585e-74</v>
+        <v>4.816536200115525e-86</v>
       </c>
       <c r="D3" t="b">
         <v>1</v>
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.550045132405386e-23</v>
+        <v>4.911587834098606e-19</v>
       </c>
       <c r="C4" t="n">
-        <v>5.659670328533974e-82</v>
+        <v>2.747216009924017e-90</v>
       </c>
       <c r="D4" t="b">
         <v>1</v>
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5.741644448005243e-10</v>
+        <v>5.659471592052651e-08</v>
       </c>
       <c r="C5" t="n">
-        <v>5.547693832674902e-45</v>
+        <v>2.122231798827156e-47</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -616,10 +616,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.107563184801996e-21</v>
+        <v>5.950768490188135e-18</v>
       </c>
       <c r="C6" t="n">
-        <v>1.503626225276978e-58</v>
+        <v>4.524686963579098e-67</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.616821849261251e-08</v>
+        <v>3.407791125886214e-05</v>
       </c>
       <c r="C7" t="n">
-        <v>1.890475249772073e-16</v>
+        <v>2.258564088641781e-18</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
@@ -654,10 +654,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.306077330819737e-14</v>
+        <v>5.125114071704915e-08</v>
       </c>
       <c r="C8" t="n">
-        <v>2.149365658325005e-26</v>
+        <v>2.008185991136924e-28</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
@@ -673,10 +673,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.550045132405386e-23</v>
+        <v>4.911587834098606e-19</v>
       </c>
       <c r="C9" t="n">
-        <v>5.659670328533974e-82</v>
+        <v>2.747216009924017e-90</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
@@ -692,10 +692,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.193304305214587e-30</v>
+        <v>3.329763252441008e-31</v>
       </c>
       <c r="C10" t="n">
-        <v>9.662510945013585e-74</v>
+        <v>4.816536200115525e-86</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
@@ -711,10 +711,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.886967940517874e-07</v>
+        <v>2.184590941909525e-05</v>
       </c>
       <c r="C11" t="n">
-        <v>5.697637570790464e-20</v>
+        <v>2.866252216339483e-22</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
@@ -730,10 +730,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.301435847081055e-13</v>
+        <v>8.409633839178351e-09</v>
       </c>
       <c r="C12" t="n">
-        <v>2.715134898685642e-28</v>
+        <v>3.652530916440544e-30</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
@@ -793,10 +793,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2105684424836446</v>
+        <v>0.2358823183697388</v>
       </c>
       <c r="D2" t="n">
-        <v>1.508276608484291e-46</v>
+        <v>8.306633497313988e-146</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08981149512461392</v>
+        <v>0.07743981254005844</v>
       </c>
       <c r="D3" t="n">
-        <v>1.344775255240205e-10</v>
+        <v>2.273624522882977e-19</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -831,10 +831,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.009407235858128415</v>
+        <v>-0.02326087758945896</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5751872331111878</v>
+        <v>0.09809303446371052</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -850,13 +850,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.004183777228551541</v>
+        <v>-0.02385473534881919</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7680515061514326</v>
+        <v>0.01920049457318274</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -869,10 +869,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.2049474995645661</v>
+        <v>-0.2209520033757519</v>
       </c>
       <c r="D6" t="n">
-        <v>2.548719930612789e-46</v>
+        <v>1.98371870338765e-55</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -888,10 +888,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.2028895447114654</v>
+        <v>-0.2254180846681812</v>
       </c>
       <c r="D7" t="n">
-        <v>1.804310603342984e-10</v>
+        <v>1.976011260979809e-13</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -907,10 +907,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.09970455469463449</v>
+        <v>-0.1045901173097037</v>
       </c>
       <c r="D8" t="n">
-        <v>1.59198875703257e-34</v>
+        <v>2.986112328326178e-37</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -926,10 +926,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.2062805222800906</v>
+        <v>-0.2139455651981024</v>
       </c>
       <c r="D9" t="n">
-        <v>7.572581101487742e-39</v>
+        <v>1.099889142586568e-41</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -945,10 +945,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.2013468119062021</v>
+        <v>-0.2156312696473719</v>
       </c>
       <c r="D10" t="n">
-        <v>1.143111151610275e-23</v>
+        <v>2.209667510565621e-27</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1010,22 +1010,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.37578405078975</v>
+        <v>0.3786281542664872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3716604111583033</v>
+        <v>0.3745233030973145</v>
       </c>
       <c r="D2" t="n">
-        <v>-1747.824373548359</v>
+        <v>-1753.39573878788</v>
       </c>
       <c r="E2" t="n">
-        <v>-1701.864918308813</v>
+        <v>-1707.436283548334</v>
       </c>
       <c r="F2" t="n">
-        <v>91.12921699656616</v>
+        <v>92.23919179091688</v>
       </c>
       <c r="G2" t="n">
-        <v>2.377568389640429e-118</v>
+        <v>1.531199776636658e-119</v>
       </c>
     </row>
   </sheetData>
@@ -1089,13 +1089,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.405720385304448</v>
+        <v>9.253178781476306</v>
       </c>
       <c r="D2" t="n">
-        <v>7.997097855762135e-05</v>
+        <v>6.620094721188338e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05936970150510235</v>
+        <v>0.07309766757049119</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -1114,13 +1114,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6518338701319392</v>
+        <v>0.9877935233568241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5835802489053212</v>
+        <v>0.4016545019442911</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01863172087590814</v>
+        <v>0.02796608181173377</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41.3250064869224</v>
+        <v>38.69742484364713</v>
       </c>
       <c r="D4" t="n">
-        <v>2.29802285968141e-24</v>
+        <v>6.093038832649505e-23</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1659694316822848</v>
+        <v>0.1570741279965595</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1164,13 +1164,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.189490732059065</v>
+        <v>2.390873105133631</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09721879059775695</v>
+        <v>0.0762123211792317</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08808645266187887</v>
+        <v>0.09541531718226837</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -1189,13 +1189,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2599937736770391</v>
+        <v>0.4491308391555554</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8537396473565757</v>
+        <v>0.7193648786527638</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02011298856939159</v>
+        <v>0.03424350207878568</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -1261,23 +1261,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62.49499615535714</v>
+        <v>57.1653948213872</v>
       </c>
       <c r="D2" t="n">
-        <v>7.068885266877716e-46</v>
+        <v>4.380950768511413e-44</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4833520090774817</v>
+        <v>0.4331847367922442</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33.38797363022471</v>
+        <v>27.85460945803549</v>
       </c>
       <c r="D3" t="n">
-        <v>2.180823265633563e-25</v>
+        <v>4.878557211541701e-21</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1680845460716299</v>
+        <v>0.1718310759401712</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>666</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
@@ -1311,23 +1311,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10.74904715864732</v>
+        <v>29.01369398588988</v>
       </c>
       <c r="D4" t="n">
-        <v>1.809727439164286e-08</v>
+        <v>3.669783870208667e-22</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3223194686046711</v>
+        <v>0.4167814164806528</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -1336,23 +1336,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.02296621543451</v>
+        <v>8.098598273986784</v>
       </c>
       <c r="D5" t="n">
-        <v>6.642261729409503e-09</v>
+        <v>1.425672717904973e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4031445473459367</v>
+        <v>0.2783157524541886</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.954185859794356</v>
+        <v>4.099532103493019</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>37.50337639376776</v>
+        <v>30.54407013997455</v>
       </c>
       <c r="E2" t="n">
-        <v>3.550045132405386e-23</v>
+        <v>4.911587834098606e-19</v>
       </c>
     </row>
     <row r="3">
@@ -1496,16 +1496,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.19676930586533</v>
+        <v>22.93497962332111</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>91.7341895502569</v>
+        <v>102.527938592317</v>
       </c>
       <c r="E3" t="n">
-        <v>5.659670328533974e-82</v>
+        <v>2.747216009924017e-90</v>
       </c>
     </row>
     <row r="4">
@@ -1515,7 +1515,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.32425729014231</v>
+        <v>54.17891104644359</v>
       </c>
       <c r="C4" t="n">
         <v>1211</v>
@@ -1574,10 +1574,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5257518136112683</v>
+        <v>0.5241842400152708</v>
       </c>
       <c r="D2" t="n">
-        <v>1.717135305040677e-83</v>
+        <v>2.793754791224217e-198</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -1593,10 +1593,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.06990879910977094</v>
+        <v>-0.06966306877206943</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004725340879199586</v>
+        <v>5.256203592987815e-06</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -1612,10 +1612,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.08278593411551531</v>
+        <v>0.1076569468820822</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005709604899765019</v>
+        <v>2.235297920063209e-05</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -1631,10 +1631,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07284389788392436</v>
+        <v>0.06610416385313118</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004011162309806926</v>
+        <v>0.0003188885901424161</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3781459116331626</v>
+        <v>0.4115510696187132</v>
       </c>
       <c r="D6" t="n">
-        <v>2.824321866080759e-49</v>
+        <v>7.624189660098437e-59</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -1669,10 +1669,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4389341170652891</v>
+        <v>0.4510710219151058</v>
       </c>
       <c r="D7" t="n">
-        <v>1.22489695507998e-14</v>
+        <v>3.624451337696947e-16</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -1688,10 +1688,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.211321666251819</v>
+        <v>0.2104953846174466</v>
       </c>
       <c r="D8" t="n">
-        <v>4.986491136884976e-47</v>
+        <v>1.946065787964925e-45</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -1707,10 +1707,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3717118812388093</v>
+        <v>0.371546350497123</v>
       </c>
       <c r="D9" t="n">
-        <v>1.216696764755369e-39</v>
+        <v>4.135433696019752e-39</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -1726,10 +1726,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3624660417068228</v>
+        <v>0.3884953320174019</v>
       </c>
       <c r="D10" t="n">
-        <v>4.120535364376053e-24</v>
+        <v>1.985120625417146e-27</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -1791,22 +1791,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3600650579960746</v>
+        <v>0.3498085100427438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3558375769588893</v>
+        <v>0.3455132731148677</v>
       </c>
       <c r="D2" t="n">
-        <v>-338.6520367532139</v>
+        <v>-319.2535470817388</v>
       </c>
       <c r="E2" t="n">
-        <v>-292.6925815136682</v>
+        <v>-273.2940918421931</v>
       </c>
       <c r="F2" t="n">
-        <v>85.17248328943641</v>
+        <v>81.44102779813598</v>
       </c>
       <c r="G2" t="n">
-        <v>7.255953099865622e-112</v>
+        <v>1.010350469601163e-107</v>
       </c>
     </row>
   </sheetData>
@@ -1870,13 +1870,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13.48456401377861</v>
+        <v>10.85318258239844</v>
       </c>
       <c r="D2" t="n">
-        <v>2.386572572221029e-08</v>
+        <v>7.773425399296713e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1030788927756475</v>
+        <v>0.08466711576382335</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -1895,16 +1895,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.665658113577694</v>
+        <v>0.5999188842730513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01476965577571476</v>
+        <v>0.6164970143955428</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09646724752416236</v>
+        <v>0.01717329038063886</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>107</v>
@@ -1920,13 +1920,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.17930274826629</v>
+        <v>15.34780868275824</v>
       </c>
       <c r="D4" t="n">
-        <v>6.608809620520553e-12</v>
+        <v>1.206944883484084e-09</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08454769021346231</v>
+        <v>0.06881978696096247</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -1945,13 +1945,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.492684006019299</v>
+        <v>4.882156780576245</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006175172321624051</v>
+        <v>0.0039198533236959</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1654194189015561</v>
+        <v>0.1772183407369744</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -1970,13 +1970,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.844345332751598</v>
+        <v>3.956545835902012</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0008451537313275855</v>
+        <v>0.01502943991006853</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3507939687062704</v>
+        <v>0.2380133103207718</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -2042,23 +2042,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42.40979855899441</v>
+        <v>42.67470515953895</v>
       </c>
       <c r="D2" t="n">
-        <v>8.977930000750907e-34</v>
+        <v>9.437708607208663e-35</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3883332733745949</v>
+        <v>0.3632671825103427</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -2071,19 +2071,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50.29366533630545</v>
+        <v>38.72744340364778</v>
       </c>
       <c r="D3" t="n">
-        <v>5.689779914744621e-37</v>
+        <v>1.70197445101813e-28</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2333339987414335</v>
+        <v>0.2238872458837086</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>666</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
@@ -2092,23 +2092,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.515214442705095</v>
+        <v>20.56431889602518</v>
       </c>
       <c r="D4" t="n">
-        <v>4.015381078263768e-06</v>
+        <v>1.356043031189079e-16</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2495487607104033</v>
+        <v>0.3362143038162986</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -2117,23 +2117,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.908473938185221</v>
+        <v>7.35956782669988</v>
       </c>
       <c r="D5" t="n">
-        <v>1.718337660177974e-05</v>
+        <v>3.938685881454462e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2795993777466222</v>
+        <v>0.2595091671238733</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2168,17 +2168,17 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>cul_de_sac</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>organico</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>hibrido</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -2222,16 +2222,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>666</v>
+        <v>542</v>
       </c>
       <c r="D2" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
       <c r="E2" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="F2" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -2328,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -2340,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -2407,19 +2407,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8183111662592543</v>
+        <v>0.8271448987642008</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07277391254663557</v>
+        <v>-0.07066834626653097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08011695993924849</v>
+        <v>0.1066534915018788</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07091366197426077</v>
+        <v>0.06585814387031072</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5896514438577684</v>
+        <v>0.6451918813040666</v>
       </c>
     </row>
     <row r="3">
@@ -2432,16 +2432,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.029532536903972e-32</v>
+        <v>1.384804873228324e-31</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003180823547883545</v>
+        <v>3.43719198504377e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007332663502049802</v>
+        <v>2.471443596392287e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004927152919382798</v>
+        <v>0.0003214284855790881</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -2493,16 +2493,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>19127887.47057204</v>
+        <v>15275899.00374107</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>15.61303397202659</v>
+        <v>12.37249981251923</v>
       </c>
       <c r="E2" t="n">
-        <v>5.741644448005243e-10</v>
+        <v>5.659471592052651e-08</v>
       </c>
     </row>
     <row r="3">
@@ -2512,16 +2512,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>97084532.49885824</v>
+        <v>103414957.7378064</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>47.54683254159678</v>
+        <v>50.25569538955489</v>
       </c>
       <c r="E3" t="n">
-        <v>5.547693832674902e-45</v>
+        <v>2.122231798827156e-47</v>
       </c>
     </row>
     <row r="4">
@@ -2531,7 +2531,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>494541329.3441186</v>
+        <v>498393317.8109496</v>
       </c>
       <c r="C4" t="n">
         <v>1211</v>
@@ -2590,10 +2590,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>782.7822780947133</v>
+        <v>912.2688084515663</v>
       </c>
       <c r="D2" t="n">
-        <v>1.077616189909657e-23</v>
+        <v>7.651312334169449e-84</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -2609,13 +2609,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-37.69435950498126</v>
+        <v>-188.6207103560134</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6163642638126909</v>
+        <v>4.716752189197436e-05</v>
       </c>
       <c r="E3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -2628,10 +2628,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>264.6632541080538</v>
+        <v>178.1283676337653</v>
       </c>
       <c r="D4" t="n">
-        <v>0.003718144866234057</v>
+        <v>0.02039041778539074</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -2647,13 +2647,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>232.1268876459269</v>
+        <v>21.2516082776223</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002610147085835439</v>
+        <v>0.7020599242821582</v>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2666,10 +2666,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>790.967895066763</v>
+        <v>841.3706641736145</v>
       </c>
       <c r="D6" t="n">
-        <v>3.277088693597397e-25</v>
+        <v>3.22596627037478e-29</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -2685,10 +2685,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1277.964977089915</v>
+        <v>1205.887240513735</v>
       </c>
       <c r="D7" t="n">
-        <v>1.558141976100856e-13</v>
+        <v>5.76756131071835e-13</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>272.4341175414474</v>
+        <v>278.3438924951012</v>
       </c>
       <c r="D8" t="n">
-        <v>2.694642385455365e-10</v>
+        <v>1.795881661515868e-10</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -2723,10 +2723,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>913.0246872806104</v>
+        <v>908.087796463313</v>
       </c>
       <c r="D9" t="n">
-        <v>5.489937624956131e-27</v>
+        <v>1.400226175602497e-26</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -2742,10 +2742,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>27.07194114330797</v>
+        <v>67.25402376278075</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7996790126073546</v>
+        <v>0.5256737149641932</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -2807,22 +2807,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2104759305626163</v>
+        <v>0.2043263179229777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2052602471972166</v>
+        <v>0.1990700095360115</v>
       </c>
       <c r="D2" t="n">
-        <v>19233.50289896133</v>
+        <v>19242.9686770329</v>
       </c>
       <c r="E2" t="n">
-        <v>19279.46235420088</v>
+        <v>19288.92813227245</v>
       </c>
       <c r="F2" t="n">
-        <v>40.35443024760487</v>
+        <v>38.87258944502415</v>
       </c>
       <c r="G2" t="n">
-        <v>2.540449722702003e-57</v>
+        <v>2.552052419675358e-55</v>
       </c>
     </row>
   </sheetData>
@@ -2886,13 +2886,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.065159123901831</v>
+        <v>5.40921953364251</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004915604999973017</v>
+        <v>0.001196028518030895</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0491509985505193</v>
+        <v>0.044069635243002</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -2911,13 +2911,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.5551909737392775</v>
+        <v>0.3646126227328431</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6458120664558047</v>
+        <v>0.7786853360493663</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01591328337228437</v>
+        <v>0.01050819040396533</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -2936,13 +2936,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.04365048048861</v>
+        <v>7.029636122337201</v>
       </c>
       <c r="D4" t="n">
-        <v>4.511584503531883e-07</v>
+        <v>0.0001182779313151104</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05049441939704236</v>
+        <v>0.03274223184572345</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -2961,13 +2961,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.137963004451914</v>
+        <v>6.876058872430979</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002915135384232168</v>
+        <v>0.0004106134547157053</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1847880394461378</v>
+        <v>0.2327496446910768</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -2986,13 +2986,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.469996514422565</v>
+        <v>1.091964318886893</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07662063095512882</v>
+        <v>0.3642720958908106</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1631797236202243</v>
+        <v>0.07936576829725617</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -3058,23 +3058,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>18.41989904065667</v>
+        <v>22.97313402550036</v>
       </c>
       <c r="D2" t="n">
-        <v>3.704403114939012e-16</v>
+        <v>4.024798048307387e-20</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2161455158714622</v>
+        <v>0.2349636661898217</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -3087,19 +3087,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>20.46683762931101</v>
+        <v>15.92325035555169</v>
       </c>
       <c r="D3" t="n">
-        <v>6.509402882444032e-16</v>
+        <v>2.507588934702729e-12</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1102045344437892</v>
+        <v>0.1060325345416153</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>666</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
@@ -3108,23 +3108,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.871062284644717</v>
+        <v>10.82191536290675</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004506888287508667</v>
+        <v>3.063563720585819e-09</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1773161239333455</v>
+        <v>0.2104533696680063</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -3133,23 +3133,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.237630522130591</v>
+        <v>4.499251990230719</v>
       </c>
       <c r="D5" t="n">
-        <v>1.982448207469724e-06</v>
+        <v>0.002420430374484676</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3163740462147293</v>
+        <v>0.1764464303484069</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -3287,19 +3287,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1327.525670599261</v>
+        <v>1454.138056831651</v>
       </c>
       <c r="D2" t="n">
-        <v>-47.23338141458186</v>
+        <v>-190.9664441498618</v>
       </c>
       <c r="E2" t="n">
-        <v>255.2157156226573</v>
+        <v>175.4402540725053</v>
       </c>
       <c r="F2" t="n">
-        <v>222.9976719257031</v>
+        <v>19.1287102324824</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6261736618577205</v>
+        <v>0.5688192985506287</v>
       </c>
     </row>
     <row r="3">
@@ -3312,15 +3312,15 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.579444621563413e-10</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>6.049044049838027e-13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.496496329913494e-05</v>
+      </c>
       <c r="E3" t="n">
-        <v>0.005067232207330788</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.003753362062574094</v>
-      </c>
+        <v>0.02216895519498568</v>
+      </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
@@ -3371,16 +3371,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4804838.582542468</v>
+        <v>4004451.068522268</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>34.98112233624832</v>
+        <v>28.73912107551343</v>
       </c>
       <c r="E2" t="n">
-        <v>1.107563184801996e-21</v>
+        <v>5.950768490188135e-18</v>
       </c>
     </row>
     <row r="3">
@@ -3390,16 +3390,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14436110.59995076</v>
+        <v>17000357.18970292</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>63.06035163694598</v>
+        <v>73.20483860208229</v>
       </c>
       <c r="E3" t="n">
-        <v>1.503626225276978e-58</v>
+        <v>4.524686963579098e-67</v>
       </c>
     </row>
     <row r="4">
@@ -3409,7 +3409,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>55445710.2846153</v>
+        <v>56246097.7986355</v>
       </c>
       <c r="C4" t="n">
         <v>1211</v>
@@ -3465,16 +3465,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.481337256856411</v>
+        <v>1.014279495544486</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>24.08425223813403</v>
+        <v>16.18612775972308</v>
       </c>
       <c r="E2" t="n">
-        <v>3.851867533186229e-15</v>
+        <v>2.553107688952266e-10</v>
       </c>
     </row>
     <row r="3">
@@ -3484,16 +3484,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.730625642836875</v>
+        <v>4.079310767485987</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>36.39252111115037</v>
+        <v>39.0592014592764</v>
       </c>
       <c r="E3" t="n">
-        <v>8.327369988005295e-35</v>
+        <v>2.849421789686596e-37</v>
       </c>
     </row>
     <row r="4">
@@ -3503,7 +3503,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.82811036738667</v>
+        <v>25.2951681286986</v>
       </c>
       <c r="C4" t="n">
         <v>1211</v>
@@ -3562,10 +3562,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>319.8993403503794</v>
+        <v>379.751758988603</v>
       </c>
       <c r="D2" t="n">
-        <v>7.497958492847559e-34</v>
+        <v>4.498743738417102e-119</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>151.5217535979905</v>
+        <v>101.4549198018583</v>
       </c>
       <c r="D3" t="n">
-        <v>2.361542883583249e-09</v>
+        <v>9.108779327405266e-11</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -3600,10 +3600,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>26.15093530760922</v>
+        <v>-21.52152473422782</v>
       </c>
       <c r="D4" t="n">
-        <v>0.3911861176733876</v>
+        <v>0.403793380123285</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -3619,13 +3619,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.08049164067578</v>
+        <v>-47.54654797684537</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6392604468593175</v>
+        <v>0.01094798668994181</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -3638,10 +3638,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-323.4235889337773</v>
+        <v>-350.0423941943495</v>
       </c>
       <c r="D6" t="n">
-        <v>4.715581249449609e-36</v>
+        <v>8.257418628210694e-43</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -3657,10 +3657,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-312.1738659897269</v>
+        <v>-362.1834404914982</v>
       </c>
       <c r="D7" t="n">
-        <v>6.172478492405131e-08</v>
+        <v>1.074106715352674e-10</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -3676,10 +3676,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-178.3676080446172</v>
+        <v>-182.4617393952372</v>
       </c>
       <c r="D8" t="n">
-        <v>1.380432049127052e-33</v>
+        <v>4.558784168277664e-34</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -3695,10 +3695,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-310.6975056216105</v>
+        <v>-321.6998686485514</v>
       </c>
       <c r="D9" t="n">
-        <v>8.841223494815817e-28</v>
+        <v>3.116636655706054e-29</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -3714,10 +3714,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-327.6475014923637</v>
+        <v>-351.8260928577874</v>
       </c>
       <c r="D10" t="n">
-        <v>1.900403194443397e-19</v>
+        <v>3.254189482205749e-22</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -3779,22 +3779,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3073045820152684</v>
+        <v>0.2973051652753982</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3027285594356831</v>
+        <v>0.2926630854423703</v>
       </c>
       <c r="D2" t="n">
-        <v>16563.86671941448</v>
+        <v>16581.35214648403</v>
       </c>
       <c r="E2" t="n">
-        <v>16609.82617465403</v>
+        <v>16627.31160172358</v>
       </c>
       <c r="F2" t="n">
-        <v>67.1553902260497</v>
+        <v>64.0456812397112</v>
       </c>
       <c r="G2" t="n">
-        <v>3.079047049589247e-91</v>
+        <v>1.638531559779168e-87</v>
       </c>
     </row>
   </sheetData>
@@ -3858,13 +3858,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4.952883507674395</v>
+        <v>4.473401591047174</v>
       </c>
       <c r="D2" t="n">
-        <v>0.002219191885956233</v>
+        <v>0.00424455807669688</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04050238559684904</v>
+        <v>0.03672540433683191</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -3883,13 +3883,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.3195214017589846</v>
+        <v>1.385230150483161</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8112340397822482</v>
+        <v>0.2515246982278573</v>
       </c>
       <c r="E3" t="n">
-        <v>0.009220637208726457</v>
+        <v>0.03878179902477841</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -3908,13 +3908,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>32.53250965260061</v>
+        <v>28.18558367204061</v>
       </c>
       <c r="D4" t="n">
-        <v>1.519421349225146e-19</v>
+        <v>4.224936924875357e-17</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1354397219470859</v>
+        <v>0.1195052564966554</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -3933,13 +3933,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.694196540830787</v>
+        <v>1.348531160526311</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1764528813984089</v>
+        <v>0.2659913741157853</v>
       </c>
       <c r="E5" t="n">
-        <v>0.06954583367593359</v>
+        <v>0.05615323972052966</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -3958,13 +3958,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4164596325392034</v>
+        <v>0.8495624819222749</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7421766294993881</v>
+        <v>0.4755102662609917</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03183181320847461</v>
+        <v>0.06285499251179583</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -4030,23 +4030,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>45.73708089418916</v>
+        <v>42.42322903283374</v>
       </c>
       <c r="D2" t="n">
-        <v>6.392954345698341e-36</v>
+        <v>1.401154432780587e-34</v>
       </c>
       <c r="E2" t="n">
-        <v>0.406417871609737</v>
+        <v>0.3619012151674407</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -4059,19 +4059,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25.82384447873931</v>
+        <v>20.68747960368935</v>
       </c>
       <c r="D3" t="n">
-        <v>6.581903527370157e-20</v>
+        <v>7.151791496486801e-16</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1351511220658603</v>
+        <v>0.1335214672176502</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>666</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
@@ -4080,23 +4080,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.19027329939506</v>
+        <v>19.91997331274292</v>
       </c>
       <c r="D4" t="n">
-        <v>8.949900696847365e-09</v>
+        <v>3.851914958187562e-16</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3311684756215155</v>
+        <v>0.3291470934695311</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -4105,23 +4105,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.322688060063507</v>
+        <v>5.90028554425202</v>
       </c>
       <c r="D5" t="n">
-        <v>3.619585325764358e-07</v>
+        <v>0.0003108437778769416</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3437228654998468</v>
+        <v>0.2193391417554219</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -4259,19 +4259,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>79.20646854941079</v>
+        <v>121.2166428089645</v>
       </c>
       <c r="D2" t="n">
-        <v>154.2813645946388</v>
+        <v>102.6008807239347</v>
       </c>
       <c r="E2" t="n">
-        <v>28.67297832708247</v>
+        <v>-20.39208407647979</v>
       </c>
       <c r="F2" t="n">
-        <v>13.53835824081855</v>
+        <v>-47.35432133241208</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3759988277913599</v>
+        <v>0.4459627531211511</v>
       </c>
     </row>
     <row r="3">
@@ -4283,12 +4283,16 @@
           <t>P-Values</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0.04485693990472476</v>
+      </c>
       <c r="D3" t="n">
-        <v>7.955403609750979e-10</v>
+        <v>3.641714297535107e-11</v>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.01111575851377818</v>
+      </c>
       <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
@@ -4339,16 +4343,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>122106.1573554793</v>
+        <v>80760.61176336065</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>11.99868112063762</v>
+        <v>7.856811691613721</v>
       </c>
       <c r="E2" t="n">
-        <v>9.616821849261251e-08</v>
+        <v>3.407791125886214e-05</v>
       </c>
     </row>
     <row r="3">
@@ -4358,16 +4362,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>291388.9534663637</v>
+        <v>328023.9054655846</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>17.17988614386115</v>
+        <v>19.14712134530929</v>
       </c>
       <c r="E3" t="n">
-        <v>1.890475249772073e-16</v>
+        <v>2.258564088641781e-18</v>
       </c>
     </row>
     <row r="4">
@@ -4377,7 +4381,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4107966.952666418</v>
+        <v>4149312.498258533</v>
       </c>
       <c r="C4" t="n">
         <v>1211</v>
@@ -4436,10 +4440,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>37.51641400495396</v>
+        <v>53.83427583903776</v>
       </c>
       <c r="D2" t="n">
-        <v>8.492416690777215e-08</v>
+        <v>2.91206844786438e-39</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4455,10 +4459,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>27.54349575630735</v>
+        <v>11.01296504767902</v>
       </c>
       <c r="D3" t="n">
-        <v>6.236320017374799e-05</v>
+        <v>0.009076313787525143</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -4474,10 +4478,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10.97796947542499</v>
+        <v>-8.814439390968918</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1861163868692875</v>
+        <v>0.2081444348134963</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -4493,13 +4497,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5.492450322603617</v>
+        <v>-10.63033860073124</v>
       </c>
       <c r="D5" t="n">
-        <v>0.4337005863333978</v>
+        <v>0.03614233686375436</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -4512,10 +4516,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-34.83372577829995</v>
+        <v>-41.30571681553863</v>
       </c>
       <c r="D6" t="n">
-        <v>3.424856273249699e-07</v>
+        <v>7.778547984730499e-10</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4531,10 +4535,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-34.29487153265564</v>
+        <v>-47.5679835139464</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02808517463823039</v>
+        <v>0.001674937881886709</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -4550,10 +4554,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-34.53037244744225</v>
+        <v>-34.67248852314513</v>
       </c>
       <c r="D8" t="n">
-        <v>2.857828806923222e-18</v>
+        <v>5.351569347575852e-18</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -4569,10 +4573,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-28.0043645450958</v>
+        <v>-29.66412149555411</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0002173747044999345</v>
+        <v>9.639233780332991e-05</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -4588,10 +4592,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-35.59572291456165</v>
+        <v>-41.29407664145958</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0002612969445376116</v>
+        <v>2.090970354341414e-05</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -4653,22 +4657,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1005370947722081</v>
+        <v>0.09148425063178156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.094595143292586</v>
+        <v>0.0854824950620493</v>
       </c>
       <c r="D2" t="n">
-        <v>13388.84587554325</v>
+        <v>13401.06345579596</v>
       </c>
       <c r="E2" t="n">
-        <v>13434.80533078279</v>
+        <v>13447.02291103551</v>
       </c>
       <c r="F2" t="n">
-        <v>16.91987811024712</v>
+        <v>15.24291510523193</v>
       </c>
       <c r="G2" t="n">
-        <v>5.441057858520269e-24</v>
+        <v>1.77145985683078e-21</v>
       </c>
     </row>
   </sheetData>
@@ -4732,13 +4736,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.506715052433864</v>
+        <v>1.875026198401255</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2124924638657507</v>
+        <v>0.1334393385630105</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01267851261338193</v>
+        <v>0.01572898247880095</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -4757,13 +4761,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.540047267575418</v>
+        <v>4.681336305534818</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01728523463521411</v>
+        <v>0.004167563582549151</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09347059099050892</v>
+        <v>0.119989130982441</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -4782,13 +4786,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8.97532748897663</v>
+        <v>10.06369226424612</v>
       </c>
       <c r="D4" t="n">
-        <v>7.935066957820796e-06</v>
+        <v>1.753094803461911e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04142930609532902</v>
+        <v>0.04622089594515111</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -4807,13 +4811,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.707962637602392</v>
+        <v>6.755987250681162</v>
       </c>
       <c r="D5" t="n">
-        <v>5.747238347151775e-05</v>
+        <v>0.0004687584736688705</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2775479051291141</v>
+        <v>0.2296185541134268</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -4832,13 +4836,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.869156740204629</v>
+        <v>5.342848553564979</v>
       </c>
       <c r="D6" t="n">
-        <v>0.04904194397562214</v>
+        <v>0.003599558105091338</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1846800562199772</v>
+        <v>0.2966680939619571</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -4898,10 +4902,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1690616946745177</v>
+        <v>0.1819461036252302</v>
       </c>
       <c r="D2" t="n">
-        <v>3.458882548975539e-22</v>
+        <v>3.775844340989251e-68</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -4917,10 +4921,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.05965209538169368</v>
+        <v>0.04729165577382676</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0004161412266335575</v>
+        <v>6.038199454338264e-06</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -4936,13 +4940,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.02665318767663304</v>
+        <v>-0.0353147347851922</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1916425624010649</v>
+        <v>0.04121693768992248</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -4955,10 +4959,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.01574054149634349</v>
+        <v>-0.01955053421356294</v>
       </c>
       <c r="D5" t="n">
-        <v>0.36146694935437</v>
+        <v>0.118435584699146</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -4974,10 +4978,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.1351207459199261</v>
+        <v>-0.1519655362078452</v>
       </c>
       <c r="D6" t="n">
-        <v>1.443033875110281e-15</v>
+        <v>1.103253502677197e-19</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -4993,10 +4997,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.1554451931091353</v>
+        <v>-0.1705029610435088</v>
       </c>
       <c r="D7" t="n">
-        <v>5.360589023507188e-05</v>
+        <v>5.316692876144311e-06</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -5012,10 +5016,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.1179236525817962</v>
+        <v>-0.1181099408176501</v>
       </c>
       <c r="D8" t="n">
-        <v>7.229775728818543e-33</v>
+        <v>5.59708990006393e-32</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -5031,10 +5035,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.1340767823956394</v>
+        <v>-0.1359712206213018</v>
       </c>
       <c r="D9" t="n">
-        <v>8.939120164004759e-13</v>
+        <v>6.732309097387375e-13</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -5050,10 +5054,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.1137052881850608</v>
+        <v>-0.1284834333505191</v>
       </c>
       <c r="D10" t="n">
-        <v>2.191702490082186e-06</v>
+        <v>8.781916405801175e-08</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -5116,23 +5120,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10.2966302803948</v>
+        <v>17.1169139175566</v>
       </c>
       <c r="D2" t="n">
-        <v>3.399738249389333e-09</v>
+        <v>2.973134165071718e-15</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1335548680006728</v>
+        <v>0.186221590652068</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -5145,19 +5149,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>6.903718050985951</v>
+        <v>2.311759969393939</v>
       </c>
       <c r="D3" t="n">
-        <v>1.902441534731952e-05</v>
+        <v>0.05662973675958532</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04010205605284289</v>
+        <v>0.01692831118983851</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>666</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
@@ -5166,23 +5170,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.798450429611298</v>
+        <v>5.338420683908705</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0005146601571491019</v>
+        <v>0.000124103219974922</v>
       </c>
       <c r="E4" t="n">
-        <v>0.175135832661007</v>
+        <v>0.1162081892331716</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -5191,23 +5195,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.342432080366389</v>
+        <v>4.447795064986652</v>
       </c>
       <c r="D5" t="n">
-        <v>0.008191366355596818</v>
+        <v>0.002612834306144667</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1580911821147715</v>
+        <v>0.1747811570168736</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -5272,7 +5276,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
         <v>4</v>
@@ -5281,7 +5285,7 @@
         <v>0.8</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>
@@ -5345,19 +5349,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10.1011084598398</v>
+        <v>22.82357408841641</v>
       </c>
       <c r="D2" t="n">
-        <v>28.57197481236649</v>
+        <v>11.58337826601276</v>
       </c>
       <c r="E2" t="n">
-        <v>12.01924463543476</v>
+        <v>-8.17413519538143</v>
       </c>
       <c r="F2" t="n">
-        <v>5.968606469079793</v>
+        <v>-10.55535965227794</v>
       </c>
       <c r="G2" t="n">
-        <v>0.06022843725755645</v>
+        <v>0.07975847178903117</v>
       </c>
     </row>
     <row r="3">
@@ -5369,12 +5373,16 @@
           <t>P-Values</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0.003055742627402666</v>
+      </c>
       <c r="D3" t="n">
-        <v>2.16260554396777e-05</v>
+        <v>0.005705345680653146</v>
       </c>
       <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>0.0369501196666154</v>
+      </c>
       <c r="G3" t="inlineStr"/>
     </row>
   </sheetData>
@@ -5425,16 +5433,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2392736.836668069</v>
+        <v>1385470.270794334</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>21.98092706677078</v>
+        <v>12.44243301750986</v>
       </c>
       <c r="E2" t="n">
-        <v>7.306077330819737e-14</v>
+        <v>5.125114071704915e-08</v>
       </c>
     </row>
     <row r="3">
@@ -5444,16 +5452,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4981530.812198984</v>
+        <v>5491681.801421865</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>27.45776228771473</v>
+        <v>29.59134572919867</v>
       </c>
       <c r="E3" t="n">
-        <v>2.149365658325005e-26</v>
+        <v>2.008185991136924e-28</v>
       </c>
     </row>
     <row r="4">
@@ -5463,7 +5471,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>43941190.47546796</v>
+        <v>44948457.04134166</v>
       </c>
       <c r="C4" t="n">
         <v>1211</v>
@@ -5522,10 +5530,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>177.6545111324291</v>
+        <v>210.899097278639</v>
       </c>
       <c r="D2" t="n">
-        <v>1.29781578609511e-14</v>
+        <v>1.915421709879445e-53</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -5541,10 +5549,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>89.61239192388093</v>
+        <v>52.78726680170318</v>
       </c>
       <c r="D3" t="n">
-        <v>6.807400257779235e-05</v>
+        <v>0.000148350740859325</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -5560,13 +5568,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-28.51232538291785</v>
+        <v>-47.81933756953103</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2936744259565511</v>
+        <v>0.03812193600266138</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -5579,10 +5587,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1.913539240111819</v>
+        <v>-23.8362839589071</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9335289910008797</v>
+        <v>0.1532391374622168</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -5598,10 +5606,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-157.3294589575207</v>
+        <v>-178.7510324938326</v>
       </c>
       <c r="D6" t="n">
-        <v>2.432343901138417e-12</v>
+        <v>8.955449243879193e-16</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -5617,10 +5625,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-164.9812794035151</v>
+        <v>-196.6695617837759</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001253117403638376</v>
+        <v>8.047969717390316e-05</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -5636,10 +5644,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-136.5901291119252</v>
+        <v>-135.3321794597907</v>
       </c>
       <c r="D8" t="n">
-        <v>1.198464208935853e-25</v>
+        <v>2.183703975783311e-24</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -5655,10 +5663,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-144.9746284906363</v>
+        <v>-147.2670209426219</v>
       </c>
       <c r="D9" t="n">
-        <v>5.584784818945942e-09</v>
+        <v>4.66817602671122e-09</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -5674,10 +5682,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-153.7822962029793</v>
+        <v>-173.2218428767777</v>
       </c>
       <c r="D10" t="n">
-        <v>1.487723807759641e-06</v>
+        <v>6.285974895770575e-08</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -5739,22 +5747,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1546913513445392</v>
+        <v>0.1353142900855847</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1491071488761299</v>
+        <v>0.1296020806063813</v>
       </c>
       <c r="D2" t="n">
-        <v>16280.15304865885</v>
+        <v>16307.80346345467</v>
       </c>
       <c r="E2" t="n">
-        <v>16326.1125038984</v>
+        <v>16353.76291869422</v>
       </c>
       <c r="F2" t="n">
-        <v>27.70160147660325</v>
+        <v>23.68860781073017</v>
       </c>
       <c r="G2" t="n">
-        <v>9.129491215908674e-40</v>
+        <v>5.597637155176411e-34</v>
       </c>
     </row>
   </sheetData>
@@ -5818,16 +5826,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.42096112536756</v>
+        <v>2.593912816411491</v>
       </c>
       <c r="D2" t="n">
-        <v>7.833907984304449e-05</v>
+        <v>0.05245119824350732</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0594846145983714</v>
+        <v>0.02162905344439126</v>
       </c>
       <c r="F2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>356</v>
@@ -5843,13 +5851,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.3796591330169</v>
+        <v>3.301319457407497</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0211329189301602</v>
+        <v>0.02331383195857896</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08961524694791678</v>
+        <v>0.0877202049867114</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -5868,13 +5876,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.50892164300088</v>
+        <v>8.871144753711491</v>
       </c>
       <c r="D4" t="n">
-        <v>2.370583661385354e-07</v>
+        <v>9.169869306923405e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0525100524732719</v>
+        <v>0.04096810942865492</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -5893,13 +5901,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.700590183144395</v>
+        <v>2.563198215648186</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05240702567095898</v>
+        <v>0.061875682903493</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1064596853784177</v>
+        <v>0.1015938146162997</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -5918,13 +5926,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8087948353453116</v>
+        <v>0.8199153557091544</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4968967134402896</v>
+        <v>0.4909836992744568</v>
       </c>
       <c r="E6" t="n">
-        <v>0.06001982456961141</v>
+        <v>0.06079489631611767</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -5990,23 +5998,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15.33475020710936</v>
+        <v>12.87595227859848</v>
       </c>
       <c r="D2" t="n">
-        <v>1.414060895244812e-13</v>
+        <v>1.444537987315229e-11</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1867023418034578</v>
+        <v>0.1468584251892006</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -6019,19 +6027,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.21417158849795</v>
+        <v>10.73167839887792</v>
       </c>
       <c r="D3" t="n">
-        <v>1.122287805069794e-12</v>
+        <v>2.249225742537667e-08</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08935191694626332</v>
+        <v>0.07402092814343486</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>666</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
@@ -6040,23 +6048,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.860431108121603</v>
+        <v>9.687291735887987</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0004595293155590494</v>
+        <v>2.599438632557109e-08</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1769976257468187</v>
+        <v>0.192638963075726</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -6065,23 +6073,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.643997605941983</v>
+        <v>3.248873240732042</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02820820393584257</v>
+        <v>0.01575771428359895</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1293287964959218</v>
+        <v>0.1339803795615025</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -6140,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -6152,7 +6160,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -6219,19 +6227,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>52.96009139809208</v>
+        <v>76.33886920296381</v>
       </c>
       <c r="D2" t="n">
-        <v>93.18695490214854</v>
+        <v>54.32736481446741</v>
       </c>
       <c r="E2" t="n">
-        <v>-24.99146244995307</v>
+        <v>-46.13780216179801</v>
       </c>
       <c r="F2" t="n">
-        <v>3.997467404971668</v>
+        <v>-23.58048886132036</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1091776344897496</v>
+        <v>0.1334941872880984</v>
       </c>
     </row>
     <row r="3">
@@ -6243,11 +6251,15 @@
           <t>P-Values</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>0.0147466002645846</v>
+      </c>
       <c r="D3" t="n">
-        <v>2.637693830916807e-05</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
+        <v>8.487832891921264e-05</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.04502814337658451</v>
+      </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -6307,22 +6319,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1847811079179892</v>
+        <v>0.1694454941688593</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1793956817110065</v>
+        <v>0.1639587592005282</v>
       </c>
       <c r="D2" t="n">
-        <v>-1271.238144546883</v>
+        <v>-1248.501125792941</v>
       </c>
       <c r="E2" t="n">
-        <v>-1225.278689307337</v>
+        <v>-1202.541670553395</v>
       </c>
       <c r="F2" t="n">
-        <v>34.31132482669662</v>
+        <v>30.88275543595199</v>
       </c>
       <c r="G2" t="n">
-        <v>4.555331011332809e-49</v>
+        <v>2.802564741267812e-44</v>
       </c>
     </row>
   </sheetData>
@@ -6373,16 +6385,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.954185859794356</v>
+        <v>4.099532103493019</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>37.50337639376776</v>
+        <v>30.54407013997455</v>
       </c>
       <c r="E2" t="n">
-        <v>3.550045132405386e-23</v>
+        <v>4.911587834098606e-19</v>
       </c>
     </row>
     <row r="3">
@@ -6392,16 +6404,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.19676930586533</v>
+        <v>22.93497962332111</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>91.7341895502569</v>
+        <v>102.527938592317</v>
       </c>
       <c r="E3" t="n">
-        <v>5.659670328533974e-82</v>
+        <v>2.747216009924017e-90</v>
       </c>
     </row>
     <row r="4">
@@ -6411,7 +6423,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.32425729014231</v>
+        <v>54.17891104644359</v>
       </c>
       <c r="C4" t="n">
         <v>1211</v>
@@ -6470,10 +6482,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5257518136112683</v>
+        <v>0.5241842400152708</v>
       </c>
       <c r="D2" t="n">
-        <v>1.717135305040677e-83</v>
+        <v>2.793754791224217e-198</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -6489,10 +6501,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.06990879910977094</v>
+        <v>-0.06966306877206943</v>
       </c>
       <c r="D3" t="n">
-        <v>0.004725340879199586</v>
+        <v>5.256203592987815e-06</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -6508,10 +6520,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.08278593411551531</v>
+        <v>0.1076569468820822</v>
       </c>
       <c r="D4" t="n">
-        <v>0.005709604899765019</v>
+        <v>2.235297920063209e-05</v>
       </c>
       <c r="E4" t="b">
         <v>1</v>
@@ -6527,10 +6539,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.07284389788392436</v>
+        <v>0.06610416385313118</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004011162309806926</v>
+        <v>0.0003188885901424161</v>
       </c>
       <c r="E5" t="b">
         <v>1</v>
@@ -6546,10 +6558,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.3781459116331626</v>
+        <v>0.4115510696187132</v>
       </c>
       <c r="D6" t="n">
-        <v>2.824321866080759e-49</v>
+        <v>7.624189660098437e-59</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -6565,10 +6577,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.4389341170652891</v>
+        <v>0.4510710219151058</v>
       </c>
       <c r="D7" t="n">
-        <v>1.22489695507998e-14</v>
+        <v>3.624451337696947e-16</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -6584,10 +6596,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.211321666251819</v>
+        <v>0.2104953846174466</v>
       </c>
       <c r="D8" t="n">
-        <v>4.986491136884976e-47</v>
+        <v>1.946065787964925e-45</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -6603,10 +6615,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3717118812388093</v>
+        <v>0.371546350497123</v>
       </c>
       <c r="D9" t="n">
-        <v>1.216696764755369e-39</v>
+        <v>4.135433696019752e-39</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -6622,10 +6634,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.3624660417068228</v>
+        <v>0.3884953320174019</v>
       </c>
       <c r="D10" t="n">
-        <v>4.120535364376053e-24</v>
+        <v>1.985120625417146e-27</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -6687,22 +6699,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3600650579960746</v>
+        <v>0.3498085100427438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3558375769588893</v>
+        <v>0.3455132731148677</v>
       </c>
       <c r="D2" t="n">
-        <v>-338.6520367532139</v>
+        <v>-319.2535470817388</v>
       </c>
       <c r="E2" t="n">
-        <v>-292.6925815136682</v>
+        <v>-273.2940918421931</v>
       </c>
       <c r="F2" t="n">
-        <v>85.17248328943641</v>
+        <v>81.44102779813598</v>
       </c>
       <c r="G2" t="n">
-        <v>7.255953099865622e-112</v>
+        <v>1.010350469601163e-107</v>
       </c>
     </row>
   </sheetData>
@@ -6766,13 +6778,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13.48456401377861</v>
+        <v>10.85318258239844</v>
       </c>
       <c r="D2" t="n">
-        <v>2.386572572221029e-08</v>
+        <v>7.773425399296713e-07</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1030788927756475</v>
+        <v>0.08466711576382335</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -6791,16 +6803,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3.665658113577694</v>
+        <v>0.5999188842730513</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01476965577571476</v>
+        <v>0.6164970143955428</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09646724752416236</v>
+        <v>0.01717329038063886</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>107</v>
@@ -6816,13 +6828,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>19.17930274826629</v>
+        <v>15.34780868275824</v>
       </c>
       <c r="D4" t="n">
-        <v>6.608809620520553e-12</v>
+        <v>1.206944883484084e-09</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08454769021346231</v>
+        <v>0.06881978696096247</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -6841,13 +6853,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.492684006019299</v>
+        <v>4.882156780576245</v>
       </c>
       <c r="D5" t="n">
-        <v>0.006175172321624051</v>
+        <v>0.0039198533236959</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1654194189015561</v>
+        <v>0.1772183407369744</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -6866,13 +6878,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6.844345332751598</v>
+        <v>3.956545835902012</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0008451537313275855</v>
+        <v>0.01502943991006853</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3507939687062704</v>
+        <v>0.2380133103207718</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -6938,23 +6950,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>42.40979855899441</v>
+        <v>42.67470515953895</v>
       </c>
       <c r="D2" t="n">
-        <v>8.977930000750907e-34</v>
+        <v>9.437708607208663e-35</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3883332733745949</v>
+        <v>0.3632671825103427</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -6967,19 +6979,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>50.29366533630545</v>
+        <v>38.72744340364778</v>
       </c>
       <c r="D3" t="n">
-        <v>5.689779914744621e-37</v>
+        <v>1.70197445101813e-28</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2333339987414335</v>
+        <v>0.2238872458837086</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>666</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
@@ -6988,23 +7000,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7.515214442705095</v>
+        <v>20.56431889602518</v>
       </c>
       <c r="D4" t="n">
-        <v>4.015381078263768e-06</v>
+        <v>1.356043031189079e-16</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2495487607104033</v>
+        <v>0.3362143038162986</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -7013,23 +7025,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6.908473938185221</v>
+        <v>7.35956782669988</v>
       </c>
       <c r="D5" t="n">
-        <v>1.718337660177974e-05</v>
+        <v>3.938685881454462e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2795993777466222</v>
+        <v>0.2595091671238733</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -7088,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -7100,7 +7112,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -7167,19 +7179,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8183111662592543</v>
+        <v>0.8271448987642008</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.07277391254663557</v>
+        <v>-0.07066834626653097</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08011695993924849</v>
+        <v>0.1066534915018788</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07091366197426077</v>
+        <v>0.06585814387031072</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5896514438577684</v>
+        <v>0.6451918813040666</v>
       </c>
     </row>
     <row r="3">
@@ -7192,16 +7204,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4.029532536903972e-32</v>
+        <v>1.384804873228324e-31</v>
       </c>
       <c r="D3" t="n">
-        <v>0.003180823547883545</v>
+        <v>3.43719198504377e-06</v>
       </c>
       <c r="E3" t="n">
-        <v>0.007332663502049802</v>
+        <v>2.471443596392287e-05</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004927152919382798</v>
+        <v>0.0003214284855790881</v>
       </c>
       <c r="G3" t="inlineStr"/>
     </row>
@@ -7253,16 +7265,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.047970776752025</v>
+        <v>2.12451271762867</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>49.21049181207925</v>
+        <v>51.28337218123081</v>
       </c>
       <c r="E2" t="n">
-        <v>5.193304305214587e-30</v>
+        <v>3.329763252441008e-31</v>
       </c>
     </row>
     <row r="3">
@@ -7272,16 +7284,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.644017143520167</v>
+        <v>6.695716161754655</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>81.37172539217273</v>
+        <v>96.97628103438724</v>
       </c>
       <c r="E3" t="n">
-        <v>9.662510945013585e-74</v>
+        <v>4.816536200115525e-86</v>
       </c>
     </row>
     <row r="4">
@@ -7291,7 +7303,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.7992130629207</v>
+        <v>16.72267112204407</v>
       </c>
       <c r="C4" t="n">
         <v>1211</v>
@@ -7350,10 +7362,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.2105684424836446</v>
+        <v>0.2358823183697388</v>
       </c>
       <c r="D2" t="n">
-        <v>1.508276608484291e-46</v>
+        <v>8.306633497313988e-146</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -7369,10 +7381,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.08981149512461392</v>
+        <v>0.07743981254005844</v>
       </c>
       <c r="D3" t="n">
-        <v>1.344775255240205e-10</v>
+        <v>2.273624522882977e-19</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -7388,10 +7400,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.009407235858128415</v>
+        <v>-0.02326087758945896</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5751872331111878</v>
+        <v>0.09809303446371052</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -7407,13 +7419,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.004183777228551541</v>
+        <v>-0.02385473534881919</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7680515061514326</v>
+        <v>0.01920049457318274</v>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -7426,10 +7438,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.2049474995645661</v>
+        <v>-0.2209520033757519</v>
       </c>
       <c r="D6" t="n">
-        <v>2.548719930612789e-46</v>
+        <v>1.98371870338765e-55</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -7445,10 +7457,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.2028895447114654</v>
+        <v>-0.2254180846681812</v>
       </c>
       <c r="D7" t="n">
-        <v>1.804310603342984e-10</v>
+        <v>1.976011260979809e-13</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -7464,10 +7476,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.09970455469463449</v>
+        <v>-0.1045901173097037</v>
       </c>
       <c r="D8" t="n">
-        <v>1.59198875703257e-34</v>
+        <v>2.986112328326178e-37</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -7483,10 +7495,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.2062805222800906</v>
+        <v>-0.2139455651981024</v>
       </c>
       <c r="D9" t="n">
-        <v>7.572581101487742e-39</v>
+        <v>1.099889142586568e-41</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -7502,10 +7514,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.2013468119062021</v>
+        <v>-0.2156312696473719</v>
       </c>
       <c r="D10" t="n">
-        <v>1.143111151610275e-23</v>
+        <v>2.209667510565621e-27</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -7567,22 +7579,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.37578405078975</v>
+        <v>0.3786281542664872</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3716604111583033</v>
+        <v>0.3745233030973145</v>
       </c>
       <c r="D2" t="n">
-        <v>-1747.824373548359</v>
+        <v>-1753.39573878788</v>
       </c>
       <c r="E2" t="n">
-        <v>-1701.864918308813</v>
+        <v>-1707.436283548334</v>
       </c>
       <c r="F2" t="n">
-        <v>91.12921699656616</v>
+        <v>92.23919179091688</v>
       </c>
       <c r="G2" t="n">
-        <v>2.377568389640429e-118</v>
+        <v>1.531199776636658e-119</v>
       </c>
     </row>
   </sheetData>
@@ -7646,13 +7658,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.149033210313038</v>
+        <v>3.029992231574051</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0004387279176695436</v>
+        <v>0.02946027161236498</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04979685263919509</v>
+        <v>0.02517371647346256</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -7671,16 +7683,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11.07821108069244</v>
+        <v>0.4522085391283334</v>
       </c>
       <c r="D3" t="n">
-        <v>2.30547951376623e-06</v>
+        <v>0.7162862681817816</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2439514274099612</v>
+        <v>0.01299989923360456</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>107</v>
@@ -7696,13 +7708,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13.37493594160823</v>
+        <v>11.49710977162941</v>
       </c>
       <c r="D4" t="n">
-        <v>1.807702987304687e-08</v>
+        <v>2.409610180383193e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>0.06050868155037314</v>
+        <v>0.05245898733117671</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -7721,13 +7733,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.615320360547812</v>
+        <v>5.079935667262328</v>
       </c>
       <c r="D5" t="n">
-        <v>0.005349323158873062</v>
+        <v>0.003117167768143134</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1691709755577522</v>
+        <v>0.1830831611786392</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -7746,13 +7758,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.52267530885789</v>
+        <v>3.200838194027379</v>
       </c>
       <c r="D6" t="n">
-        <v>0.003010050756473964</v>
+        <v>0.03400522011163342</v>
       </c>
       <c r="E6" t="n">
-        <v>0.303621500782665</v>
+        <v>0.2017228431393954</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -7822,13 +7834,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7.405720385304448</v>
+        <v>9.253178781476306</v>
       </c>
       <c r="D2" t="n">
-        <v>7.997097855762135e-05</v>
+        <v>6.620094721188338e-06</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05936970150510235</v>
+        <v>0.07309766757049119</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -7847,13 +7859,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6518338701319392</v>
+        <v>0.9877935233568241</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5835802489053212</v>
+        <v>0.4016545019442911</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01863172087590814</v>
+        <v>0.02796608181173377</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
@@ -7872,13 +7884,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>41.3250064869224</v>
+        <v>38.69742484364713</v>
       </c>
       <c r="D4" t="n">
-        <v>2.29802285968141e-24</v>
+        <v>6.093038832649505e-23</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1659694316822848</v>
+        <v>0.1570741279965595</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -7897,13 +7909,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.189490732059065</v>
+        <v>2.390873105133631</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09721879059775695</v>
+        <v>0.0762123211792317</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08808645266187887</v>
+        <v>0.09541531718226837</v>
       </c>
       <c r="F5" t="b">
         <v>0</v>
@@ -7922,13 +7934,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.2599937736770391</v>
+        <v>0.4491308391555554</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8537396473565757</v>
+        <v>0.7193648786527638</v>
       </c>
       <c r="E6" t="n">
-        <v>0.02011298856939159</v>
+        <v>0.03424350207878568</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -7994,23 +8006,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>62.49499615535714</v>
+        <v>57.1653948213872</v>
       </c>
       <c r="D2" t="n">
-        <v>7.068885266877716e-46</v>
+        <v>4.380950768511413e-44</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4833520090774817</v>
+        <v>0.4331847367922442</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -8023,19 +8035,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>33.38797363022471</v>
+        <v>27.85460945803549</v>
       </c>
       <c r="D3" t="n">
-        <v>2.180823265633563e-25</v>
+        <v>4.878557211541701e-21</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1680845460716299</v>
+        <v>0.1718310759401712</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>666</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
@@ -8044,23 +8056,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>10.74904715864732</v>
+        <v>29.01369398588988</v>
       </c>
       <c r="D4" t="n">
-        <v>1.809727439164286e-08</v>
+        <v>3.669783870208667e-22</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3223194686046711</v>
+        <v>0.4167814164806528</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -8069,23 +8081,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12.02296621543451</v>
+        <v>8.098598273986784</v>
       </c>
       <c r="D5" t="n">
-        <v>6.642261729409503e-09</v>
+        <v>1.425672717904973e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.4031445473459367</v>
+        <v>0.2783157524541886</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -8210,16 +8222,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.0398280705848499</v>
+        <v>0.02975204305086631</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>11.01403184206895</v>
+        <v>8.171208964426111</v>
       </c>
       <c r="E2" t="n">
-        <v>3.886967940517874e-07</v>
+        <v>2.184590941909525e-05</v>
       </c>
     </row>
     <row r="3">
@@ -8229,16 +8241,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1252907880303187</v>
+        <v>0.1405531399233723</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>20.78870568350494</v>
+        <v>23.16121433993398</v>
       </c>
       <c r="E3" t="n">
-        <v>5.697637570790464e-20</v>
+        <v>2.866252216339483e-22</v>
       </c>
     </row>
     <row r="4">
@@ -8248,7 +8260,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.459707464376734</v>
+        <v>1.469783491910718</v>
       </c>
       <c r="C4" t="n">
         <v>1211</v>
@@ -8307,10 +8319,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.02811717296470346</v>
+        <v>0.03467720333039843</v>
       </c>
       <c r="D2" t="n">
-        <v>1.925268269635876e-11</v>
+        <v>3.446924068685146e-45</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -8326,10 +8338,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.01368221605307471</v>
+        <v>0.007692915830670023</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0008384908918112698</v>
+        <v>0.002208242148135541</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -8345,10 +8357,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.006094289026622179</v>
+        <v>-0.002440060900734889</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2181883921569468</v>
+        <v>0.5581494168161885</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -8364,10 +8376,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9.436111917222596e-05</v>
+        <v>-0.005818862833311088</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9819964564952253</v>
+        <v>0.05393419017463676</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -8383,10 +8395,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.02427036382605898</v>
+        <v>-0.02769827608353191</v>
       </c>
       <c r="D6" t="n">
-        <v>2.719535781855683e-09</v>
+        <v>4.709190164409708e-12</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -8402,10 +8414,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.02547757967369912</v>
+        <v>-0.03091166641122196</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006230331426711453</v>
+        <v>0.0006038460801057356</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -8421,10 +8433,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.02233185223348287</v>
+        <v>-0.02267705122162038</v>
       </c>
       <c r="D8" t="n">
-        <v>4.033113264945421e-21</v>
+        <v>2.767985599058989e-21</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -8440,10 +8452,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.02059171606096429</v>
+        <v>-0.02163059910004096</v>
       </c>
       <c r="D9" t="n">
-        <v>5.243633022654758e-06</v>
+        <v>1.841249545349612e-06</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -8459,10 +8471,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.02049886991623299</v>
+        <v>-0.02347170954203171</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0004191425337598947</v>
+        <v>4.804357309577408e-05</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -8524,22 +8536,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1122119052382171</v>
+        <v>0.1060837066056354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1063470788483788</v>
+        <v>0.1001783966575306</v>
       </c>
       <c r="D2" t="n">
-        <v>-4728.401487497683</v>
+        <v>-4720.00903826283</v>
       </c>
       <c r="E2" t="n">
-        <v>-4682.442032258137</v>
+        <v>-4674.049583023285</v>
       </c>
       <c r="F2" t="n">
-        <v>19.13303101906646</v>
+        <v>17.96412170366787</v>
       </c>
       <c r="G2" t="n">
-        <v>2.760563365022754e-27</v>
+        <v>1.506261410906314e-25</v>
       </c>
     </row>
   </sheetData>
@@ -8603,13 +8615,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1.151598298656794</v>
+        <v>0.9862344579153036</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3282536205260729</v>
+        <v>0.3993178333784324</v>
       </c>
       <c r="E2" t="n">
-        <v>0.009719365009498548</v>
+        <v>0.008335345339118505</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
@@ -8628,16 +8640,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.279814867574334</v>
+        <v>2.770576187208714</v>
       </c>
       <c r="D3" t="n">
-        <v>0.285310211702834</v>
+        <v>0.04535951838330814</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03593658331901461</v>
+        <v>0.07467073478267361</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
         <v>107</v>
@@ -8653,13 +8665,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8.670621082342462</v>
+        <v>9.291142467647335</v>
       </c>
       <c r="D4" t="n">
-        <v>1.21136420831611e-05</v>
+        <v>5.118951343905308e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.04007917993500021</v>
+        <v>0.04282465104491995</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -8678,13 +8690,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8.259362491627016</v>
+        <v>7.611711608727536</v>
       </c>
       <c r="D5" t="n">
-        <v>9.216030456151025e-05</v>
+        <v>0.0001841700047340165</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2670683148279978</v>
+        <v>0.2513909939130793</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -8703,13 +8715,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.075436596396711</v>
+        <v>1.417079084096863</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1196611025848488</v>
+        <v>0.2527670976349504</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1407829370994</v>
+        <v>0.1006180535472986</v>
       </c>
       <c r="F6" t="b">
         <v>0</v>
@@ -8775,23 +8787,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>13.93430265843682</v>
+        <v>19.36616854489571</v>
       </c>
       <c r="D2" t="n">
-        <v>2.229740312505547e-12</v>
+        <v>3.73898694942601e-17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.17259457503942</v>
+        <v>0.205659514920823</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -8804,19 +8816,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8.524792909055172</v>
+        <v>3.703670857894266</v>
       </c>
       <c r="D3" t="n">
-        <v>1.037494897526513e-06</v>
+        <v>0.005506426970185592</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04905655628383698</v>
+        <v>0.02684720772460925</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>666</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
@@ -8825,23 +8837,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3.56983833174431</v>
+        <v>7.941960606216269</v>
       </c>
       <c r="D4" t="n">
-        <v>0.004918900187714079</v>
+        <v>7.435240322936884e-07</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1364104082910613</v>
+        <v>0.1636102148951771</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -8850,23 +8862,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.943186202681052</v>
+        <v>3.111332836236482</v>
       </c>
       <c r="D5" t="n">
-        <v>0.01663234674571097</v>
+        <v>0.01938355168724235</v>
       </c>
       <c r="E5" t="n">
-        <v>0.141886891142145</v>
+        <v>0.1290402673866505</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -8925,7 +8937,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -8937,7 +8949,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -8991,16 +9003,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.076570465130651</v>
+        <v>0.7102575012884875</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>21.16285837118838</v>
+        <v>13.71730414336678</v>
       </c>
       <c r="E2" t="n">
-        <v>2.301435847081055e-13</v>
+        <v>8.409633839178351e-09</v>
       </c>
     </row>
     <row r="3">
@@ -9010,16 +9022,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.497179937823185</v>
+        <v>2.71246369158641</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>29.45323156999943</v>
+        <v>31.43171824401538</v>
       </c>
       <c r="E3" t="n">
-        <v>2.715134898685642e-28</v>
+        <v>3.652530916440544e-30</v>
       </c>
     </row>
     <row r="4">
@@ -9029,7 +9041,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20.53482584766121</v>
+        <v>20.90113881150338</v>
       </c>
       <c r="C4" t="n">
         <v>1211</v>
@@ -9094,23 +9106,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>22.68701237314339</v>
+        <v>16.98725519733062</v>
       </c>
       <c r="D2" t="n">
-        <v>1.337934474228159e-19</v>
+        <v>3.836503001256404e-15</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2535229612822805</v>
+        <v>0.1850720468850521</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -9123,19 +9135,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>19.32423222217471</v>
+        <v>13.58383398725366</v>
       </c>
       <c r="D3" t="n">
-        <v>4.760934460971112e-15</v>
+        <v>1.479655282291333e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1046962622546025</v>
+        <v>0.09188582627455144</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>666</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
@@ -9144,23 +9156,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4.150533902127592</v>
+        <v>14.13745509884609</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001689547988193695</v>
+        <v>7.240808233117233e-12</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1551570491008959</v>
+        <v>0.258277537260663</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -9169,23 +9181,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4.037026264148738</v>
+        <v>4.725748157902049</v>
       </c>
       <c r="D5" t="n">
-        <v>0.002389215604366545</v>
+        <v>0.001729956902602566</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1848706969216127</v>
+        <v>0.183697209849676</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -9239,10 +9251,10 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1409445217098142</v>
+        <v>0.1472689002948318</v>
       </c>
       <c r="D2" t="n">
-        <v>5.28493696883017e-19</v>
+        <v>1.027249930041844e-55</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -9258,10 +9270,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.04596987932861894</v>
+        <v>0.03959873994315675</v>
       </c>
       <c r="D3" t="n">
-        <v>0.002761824249410001</v>
+        <v>3.033871965397676e-05</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -9277,13 +9289,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.03274747670325523</v>
+        <v>-0.0328746738844573</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07781027756855036</v>
+        <v>0.03657873462710661</v>
       </c>
       <c r="E4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -9296,10 +9308,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-0.01583490261551571</v>
+        <v>-0.01373167138025185</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3127718541056781</v>
+        <v>0.227553874691072</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -9315,10 +9327,10 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.110850382093867</v>
+        <v>-0.1242672601243134</v>
       </c>
       <c r="D6" t="n">
-        <v>5.294269995289337e-13</v>
+        <v>2.551665360580177e-16</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -9334,10 +9346,10 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.1299676134354361</v>
+        <v>-0.1395912946322868</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0002027948616756485</v>
+        <v>4.078355004204446e-05</v>
       </c>
       <c r="E7" t="b">
         <v>1</v>
@@ -9353,10 +9365,10 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.09559180034831324</v>
+        <v>-0.09543288959602977</v>
       </c>
       <c r="D8" t="n">
-        <v>9.50423907112482e-27</v>
+        <v>6.762042640332585e-26</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
@@ -9372,10 +9384,10 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.113485066334675</v>
+        <v>-0.1143406215212609</v>
       </c>
       <c r="D9" t="n">
-        <v>2.737890154609663e-11</v>
+        <v>2.800214199816133e-11</v>
       </c>
       <c r="E9" t="b">
         <v>1</v>
@@ -9391,10 +9403,10 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-0.09320641826882781</v>
+        <v>-0.1050117238084873</v>
       </c>
       <c r="D10" t="n">
-        <v>1.94191172368831e-05</v>
+        <v>1.464385174844323e-06</v>
       </c>
       <c r="E10" t="b">
         <v>1</v>
@@ -9456,22 +9468,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1570755244636615</v>
+        <v>0.1420389146954814</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1515070721066915</v>
+        <v>0.1363711288305465</v>
       </c>
       <c r="D2" t="n">
-        <v>-1502.860301736555</v>
+        <v>-1481.289018796415</v>
       </c>
       <c r="E2" t="n">
-        <v>-1456.900846497009</v>
+        <v>-1435.329563556869</v>
       </c>
       <c r="F2" t="n">
-        <v>28.20811140945652</v>
+        <v>25.06074119247148</v>
       </c>
       <c r="G2" t="n">
-        <v>1.727531779179371e-40</v>
+        <v>5.719695028359095e-36</v>
       </c>
     </row>
   </sheetData>
@@ -9535,13 +9547,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6.280557650905633</v>
+        <v>3.296282377598682</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0003670822140594394</v>
+        <v>0.02066084189800622</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05080786310420737</v>
+        <v>0.02732564767094714</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
@@ -9560,16 +9572,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9.656677065119013</v>
+        <v>0.3387351268906201</v>
       </c>
       <c r="D3" t="n">
-        <v>1.129548922911043e-05</v>
+        <v>0.7973538400181182</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2195197722767248</v>
+        <v>0.009769683261880324</v>
       </c>
       <c r="F3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>107</v>
@@ -9585,13 +9597,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.1347852596971</v>
+        <v>9.072802020933841</v>
       </c>
       <c r="D4" t="n">
-        <v>3.977089511221328e-07</v>
+        <v>6.930869512532624e-06</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05088990571892749</v>
+        <v>0.04186040537919289</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
@@ -9610,13 +9622,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.827607917387033</v>
+        <v>3.164246310435188</v>
       </c>
       <c r="D5" t="n">
-        <v>0.04495273443738531</v>
+        <v>0.02995992256749118</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1109114875210319</v>
+        <v>0.1224984309784239</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
@@ -9635,13 +9647,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.47472740225991</v>
+        <v>2.861772643156264</v>
       </c>
       <c r="D6" t="n">
-        <v>0.008717104654475838</v>
+        <v>0.04944582524952237</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2610480445328287</v>
+        <v>0.1842923545668863</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
@@ -9707,23 +9719,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>organico</t>
+          <t>cul_de_sac</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>17.94183206982334</v>
+        <v>11.48292924315054</v>
       </c>
       <c r="D2" t="n">
-        <v>9.19668945281353e-16</v>
+        <v>2.5042145462979e-10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.2117234384906866</v>
+        <v>0.1330846013675654</v>
       </c>
       <c r="F2" t="b">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="3">
@@ -9736,19 +9748,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>16.73677531263969</v>
+        <v>12.79000519277657</v>
       </c>
       <c r="D3" t="n">
-        <v>4.461215955402503e-13</v>
+        <v>5.958563190146069e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.09196698652353807</v>
+        <v>0.08698316608468726</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>666</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
@@ -9757,23 +9769,23 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>hibrido</t>
+          <t>organico</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.893311926187458</v>
+        <v>12.32890219107143</v>
       </c>
       <c r="D4" t="n">
-        <v>0.01699537401328716</v>
+        <v>1.88885394562071e-10</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1134929794357306</v>
+        <v>0.2329332686055822</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -9782,23 +9794,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>cul_de_sac</t>
+          <t>hibrido</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3.285069664732503</v>
+        <v>3.443211795935958</v>
       </c>
       <c r="D5" t="n">
-        <v>0.009069788914176121</v>
+        <v>0.01176090478125276</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1558007498655414</v>
+        <v>0.1408657677510466</v>
       </c>
       <c r="F5" t="b">
         <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -9857,7 +9869,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -9869,7 +9881,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -9931,7 +9943,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>5</v>
@@ -9943,7 +9955,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -9997,16 +10009,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.047970776752025</v>
+        <v>2.12451271762867</v>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>49.21049181207925</v>
+        <v>51.28337218123081</v>
       </c>
       <c r="E2" t="n">
-        <v>5.193304305214587e-30</v>
+        <v>3.329763252441008e-31</v>
       </c>
     </row>
     <row r="3">
@@ -10016,16 +10028,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.644017143520167</v>
+        <v>6.695716161754655</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>81.37172539217273</v>
+        <v>96.97628103438724</v>
       </c>
       <c r="E3" t="n">
-        <v>9.662510945013585e-74</v>
+        <v>4.816536200115525e-86</v>
       </c>
     </row>
     <row r="4">
@@ -10035,7 +10047,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.7992130629207</v>
+        <v>16.72267112204407</v>
       </c>
       <c r="C4" t="n">
         <v>1211</v>
